--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\antibody\panel-server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6B4AA1-7FE6-4319-9DC7-135126A8A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA5BE9-1D1B-4D0E-87BC-8BD8FB72D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -248,15 +248,6 @@
     <t>Gel Test</t>
   </si>
   <si>
-    <t>Merk:</t>
-  </si>
-  <si>
-    <t>No.Lot:</t>
-  </si>
-  <si>
-    <t>Exp:</t>
-  </si>
-  <si>
     <t>Sel Panel Skrining Antibodi</t>
   </si>
   <si>
@@ -301,6 +292,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Merk: PMI</t>
+  </si>
+  <si>
+    <t>No.Lot: 71616155</t>
+  </si>
+  <si>
+    <t>Exp: 12 desember 2026</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +845,7 @@
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>1</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -865,7 +865,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -875,7 +875,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -963,10 +963,10 @@
         <v>19</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="4" t="s">
@@ -976,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="2"/>
@@ -1128,7 +1128,7 @@
         <v>22</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>22</v>
@@ -1252,7 +1252,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA5BE9-1D1B-4D0E-87BC-8BD8FB72D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B59DF-3DA7-41B4-B9B6-7BBD657B63C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Sel</t>
   </si>
@@ -816,7 +816,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,8 +992,8 @@
       <c r="C5" s="5">
         <v>76</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
+      <c r="D5" s="5">
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>22</v>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B59DF-3DA7-41B4-B9B6-7BBD657B63C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F71AF5-BDAB-4103-A777-9CA7DFDAA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Sel</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Exp: 12 desember 2026</t>
+  </si>
+  <si>
+    <t>utd</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +862,9 @@
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -990,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1071,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>22</v>
@@ -1152,10 +1157,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>643</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>200</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F71AF5-BDAB-4103-A777-9CA7DFDAA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D45622-50D3-46F3-9E63-80FF25AF35B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Sel</t>
   </si>
@@ -819,7 +819,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1078,8 +1078,8 @@
       <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
+      <c r="D6" s="5">
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D45622-50D3-46F3-9E63-80FF25AF35B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3FAD1-502A-40CC-A71B-2361F77B7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Desktop\panel-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3FAD1-502A-40CC-A71B-2361F77B7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFA20CE-9A2B-4056-AF1E-BE4F2574BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="1630" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,13 +297,13 @@
     <t>Merk: PMI</t>
   </si>
   <si>
-    <t>No.Lot: 71616155</t>
-  </si>
-  <si>
-    <t>Exp: 12 desember 2026</t>
-  </si>
-  <si>
     <t>utd</t>
+  </si>
+  <si>
+    <t>No.Lot:</t>
+  </si>
+  <si>
+    <t>Exp:</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <dimension ref="B2:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,16 +863,18 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5235325</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -880,9 +882,11 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>287652</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08D420B-B619-4084-AB1B-C57D5D78D12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32ED1C4-6CD2-4DD5-9DCB-EBA5069688D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -319,7 +319,24 @@
   </si>
   <si>
     <r>
-      <t>Di</t>
+      <t>Do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Do</t>
     </r>
     <r>
       <rPr>
@@ -332,23 +349,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Di</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
     </r>
   </si>
 </sst>
@@ -866,7 +866,7 @@
   <dimension ref="B2:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,10 +1023,10 @@
         <v>29</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="4" t="s">

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32ED1C4-6CD2-4DD5-9DCB-EBA5069688D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A3860-4EFC-49AF-9A5C-F889C6DD6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <r>
-      <t>Do</t>
+      <t>Di</t>
     </r>
     <r>
       <rPr>
@@ -336,7 +336,7 @@
   </si>
   <si>
     <r>
-      <t>Do</t>
+      <t>Di</t>
     </r>
     <r>
       <rPr>
@@ -527,6 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,7 +549,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +866,7 @@
   <dimension ref="B2:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,13 +897,13 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="14"/>
     </row>
     <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -938,15 +938,15 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="14" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="AE3" s="2"/>
@@ -1028,7 +1028,7 @@
       <c r="Y4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="15"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1038,7 @@
       <c r="AC4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="17"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1397,34 +1397,34 @@
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A3860-4EFC-49AF-9A5C-F889C6DD6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9443E2-B017-409B-B1C8-EDE3845908B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>Sel</t>
   </si>
@@ -863,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2AD15-62B1-4BB6-BFA4-CA80C72D0F45}">
-  <dimension ref="B2:AJ9"/>
+  <dimension ref="B2:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,38 +1393,125 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="2:36" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="2:36" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9443E2-B017-409B-B1C8-EDE3845908B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9ADA4E-93FC-4F3D-A921-A1CCFFD043C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
@@ -335,21 +335,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Di</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
+    <t>Xg</t>
   </si>
 </sst>
 </file>
@@ -866,7 +852,7 @@
   <dimension ref="B2:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/antigram.xlsx
+++ b/data/antigram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYREX\Downloads\cadangan httpspanel-server-production.up.railway.app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9ADA4E-93FC-4F3D-A921-A1CCFFD043C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34939D-CE4B-471F-8105-B4036DF9F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
+    <workbookView xWindow="3580" yWindow="2610" windowWidth="15230" windowHeight="6900" xr2:uid="{C97B34CB-EF2A-47B8-A73F-0F8C629DA048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Sel</t>
   </si>
@@ -849,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2AD15-62B1-4BB6-BFA4-CA80C72D0F45}">
-  <dimension ref="B2:AJ10"/>
+  <dimension ref="B2:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,125 +1379,38 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-    </row>
-    <row r="10" spans="2:36" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="2:36" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
